--- a/FAQ/Разбивка каналов FPV.xlsx
+++ b/FAQ/Разбивка каналов FPV.xlsx
@@ -210,38 +210,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
